--- a/5 efekt halla.xlsx
+++ b/5 efekt halla.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Fizyka-laby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E152B9C9-5CB7-4118-B7B0-50256722C547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27578B5B-5929-4C59-BA6D-F1EE4E6673E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1875" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pomiary" sheetId="1" r:id="rId1"/>
+    <sheet name="zad" sheetId="2" r:id="rId1"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Uy, mV</t>
   </si>
@@ -78,6 +101,15 @@
   </si>
   <si>
     <t>y to Uh</t>
+  </si>
+  <si>
+    <t>Niepewność Is</t>
+  </si>
+  <si>
+    <t>0.005*wyn + 3*E27</t>
+  </si>
+  <si>
+    <t>Niepewnosc</t>
   </si>
 </sst>
 </file>
@@ -143,13 +175,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -165,6 +197,1485 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> napięcia Uh w funkcji natężenia prądu próbki Is</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>0,5A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>zad!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zad!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.69999999999999973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.79999999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F311-4F99-A81C-3FA7B420512F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>zad!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zad!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F311-4F99-A81C-3FA7B420512F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>zad!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zad!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F311-4F99-A81C-3FA7B420512F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>zad!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>zad!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.1999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F311-4F99-A81C-3FA7B420512F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="983263504"/>
+        <c:axId val="923293984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="983263504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923293984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923293984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983263504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518535</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>524121</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15548</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E72484-1AAD-5518-E880-5044A80B2B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,855 +1940,1467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE558A-2C1F-4FCF-BFDC-1E9FA0281CBB}">
+  <dimension ref="B1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="N3" s="1" t="e" cm="1">
+        <f t="array" ref="N3">0.005*wyn + 3*E21</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-5</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-2.8000000000000003</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-3.1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.69999999999999973</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1.1999999999999997</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-3.1999999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-3.9</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-3.9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-4.3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-4.8</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <f>10^(-6)*10</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="L1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>-6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>-4.3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-3.6</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-2.8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>-1.4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>-0.1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.1</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.4</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>-6</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>E3-$D3</f>
         <v>0.69999999999999973</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <f t="shared" ref="O3:S15" si="0">F3-$D3</f>
         <v>1.5</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <f t="shared" si="0"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>-3.6</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>-3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>-2.4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>-1.2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>-0.1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>0.3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-5</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f t="shared" ref="N4:N15" si="1">E4-$D4</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <f t="shared" si="0"/>
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>-4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>-3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>-2.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>-1.9</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>-1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>-0.1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>-4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>-3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-1.5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>-0.8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>-0.1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>4</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>-3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>1.4999999999999998</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" si="0"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>-2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>-1.6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>-1.4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>-0.6</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>-0.1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>-2</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>-1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>-0.9</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>-0.8</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>-0.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>-0.4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>-0.1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>-1</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>-0.2</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>7</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-0.1</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>-0.3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>-0.3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>-0.4</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <f t="shared" si="0"/>
         <v>-0.1</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>-0.3</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>-0.4</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>-0.6</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>9</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <f t="shared" si="0"/>
         <v>-0.8</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <f t="shared" si="0"/>
         <v>-1.1000000000000001</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <f t="shared" si="0"/>
         <v>-1.2000000000000002</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>1.5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.8</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>0.1</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>-0.3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>-0.5</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>-0.7</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <f t="shared" si="0"/>
         <v>-0.7</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <f t="shared" si="0"/>
         <v>-1.8</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <f t="shared" si="0"/>
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1.6</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1.2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>0.2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>-0.3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>-0.6</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>-0.9</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>11</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
         <v>-0.60000000000000009</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <f t="shared" si="0"/>
         <v>-1.0000000000000002</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
         <v>-2.8000000000000003</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <f t="shared" si="0"/>
         <v>-3.1</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>2.8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2.1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>1.6</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>0.4</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>-0.4</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>-0.7</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>12</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>5</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
         <v>-0.69999999999999973</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <f t="shared" si="0"/>
         <v>-1.1999999999999997</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <f t="shared" si="0"/>
         <v>-2.4</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <f t="shared" si="0"/>
         <v>-3.1999999999999997</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <f t="shared" si="0"/>
         <v>-3.9</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>3.5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2.7</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>2.1</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0.6</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>-0.4</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>-0.8</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>-1.3</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>13</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>6</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <f t="shared" si="1"/>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <f t="shared" si="0"/>
         <v>-1.4</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <f t="shared" si="0"/>
         <v>-2.9</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <f t="shared" si="0"/>
         <v>-3.9</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <f t="shared" si="0"/>
         <v>-4.3</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <f t="shared" si="0"/>
         <v>-4.8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +3408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>13</v>
       </c>

--- a/5 efekt halla.xlsx
+++ b/5 efekt halla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Fizyka-laby\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27578B5B-5929-4C59-BA6D-F1EE4E6673E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410939C-BE0B-42B1-B32C-1E9D60D6EBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1875" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zad" sheetId="2" r:id="rId1"/>
@@ -269,7 +269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -861,7 +861,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -899,7 +899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="923293984"/>
@@ -953,7 +953,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -991,7 +991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="983263504"/>
@@ -1033,7 +1033,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1070,7 +1070,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1943,27 +1943,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BE558A-2C1F-4FCF-BFDC-1E9FA0281CBB}">
   <dimension ref="B1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -2164,7 +2164,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -2523,17 +2523,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -2559,15 +2559,15 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
       </c>
